--- a/posesiones/1485998.xlsx
+++ b/posesiones/1485998.xlsx
@@ -1844,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>22</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>18</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>21</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>21</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>19</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>21</v>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>19</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>7</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>22</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>18</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>10</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>18</v>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>13</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>6</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>27</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59">
         <v>13</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R61">
         <v>12</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>5</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>9</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>5</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>28</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>20</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5723,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>21</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R85">
         <v>17</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R89">
         <v>19</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>19</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R104">
         <v>22</v>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>23</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>3</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -7478,10 +7478,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7898,10 +7898,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R127">
         <v>18</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8054,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8201,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R132">
         <v>32</v>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8304,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R134">
         <v>9</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R141">
         <v>29</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R144">
         <v>20</v>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R152">
         <v>26</v>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R155">
         <v>8</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R158">
         <v>16</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9706,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -9759,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>21</v>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R176">
         <v>5</v>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R177">
         <v>19</v>
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R182">
         <v>12</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R183">
         <v>14</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R185">
         <v>21</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R188">
         <v>4</v>
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R189">
         <v>20</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R191">
         <v>11</v>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R196">
         <v>27</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11517,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R200">
         <v>12</v>
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R202">
         <v>5</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R204">
         <v>12</v>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R208">
         <v>9</v>
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12108,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R217">
         <v>20</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12537,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12822,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R227">
         <v>34</v>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R229">
         <v>22</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R231">
         <v>27</v>
@@ -13081,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R233">
         <v>16</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R242">
         <v>15</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13660,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R245">
         <v>22</v>
@@ -13763,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R246">
         <v>23</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13863,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13966,7 +13966,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R250">
         <v>17</v>
@@ -14016,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R252">
         <v>5</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14401,7 +14401,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R259">
         <v>14</v>
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14492,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14589,7 +14589,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14683,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14730,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14818,10 +14818,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R269">
         <v>16</v>
@@ -14921,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14971,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R271">
         <v>19</v>
@@ -15024,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R272">
         <v>18</v>
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15312,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R278">
         <v>21</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15415,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R280">
         <v>9</v>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15615,7 +15615,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R284">
         <v>12</v>
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15715,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R286">
         <v>15</v>
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R287">
         <v>16</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R291">
         <v>24</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R293">
         <v>0</v>
@@ -16112,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R296">
         <v>22</v>
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R298">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R306">
         <v>32</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16853,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R309">
         <v>15</v>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17000,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R312">
         <v>15</v>
@@ -17053,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R313">
         <v>19</v>
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17150,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17294,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R318">
         <v>23</v>
@@ -17344,7 +17344,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17391,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17441,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R321">
         <v>12</v>
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17544,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R323">
         <v>6</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R330">
         <v>16</v>
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R331">
         <v>9</v>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18032,7 +18032,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R333">
         <v>14</v>
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18129,7 +18129,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R336">
         <v>18</v>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R338">
         <v>18</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18382,7 +18382,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R340">
         <v>6</v>
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18582,7 +18582,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R344">
         <v>10</v>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18726,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18870,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18920,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R351">
         <v>6</v>
@@ -18973,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19023,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>22</v>
@@ -19076,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19123,7 +19123,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R358">
         <v>22</v>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19370,7 +19370,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R360">
         <v>22</v>
@@ -19420,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19464,7 +19464,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19511,7 +19511,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19605,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19652,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19699,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19746,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19796,7 +19796,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R369">
         <v>24</v>
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19899,7 +19899,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R371">
         <v>20</v>
@@ -19949,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19996,7 +19996,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20093,7 +20093,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R375">
         <v>23</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20196,7 +20196,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R377">
         <v>6</v>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20343,7 +20343,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20393,7 +20393,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R381">
         <v>8</v>
@@ -20446,7 +20446,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R382">
         <v>11</v>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20637,10 +20637,10 @@
         <v>1</v>
       </c>
       <c r="P386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20734,7 +20734,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20781,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20828,7 +20828,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20869,10 +20869,10 @@
         <v>1</v>
       </c>
       <c r="P391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20922,7 +20922,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R392">
         <v>10</v>
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R394">
         <v>22</v>
@@ -21075,7 +21075,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21169,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21313,7 +21313,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R400">
         <v>33</v>
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R402">
         <v>8</v>
@@ -21463,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21560,7 +21560,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21748,7 +21748,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21798,7 +21798,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R410">
         <v>41</v>
@@ -21848,7 +21848,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21895,7 +21895,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22036,7 +22036,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22086,7 +22086,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R416">
         <v>19</v>
@@ -22136,7 +22136,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22183,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22230,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R420">
         <v>0</v>
@@ -22333,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R421">
         <v>6</v>
@@ -22386,7 +22386,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R422">
         <v>13</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22480,7 +22480,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22527,7 +22527,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R427">
         <v>17</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22721,7 +22721,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22771,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R430">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R431">
         <v>19</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22968,7 +22968,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23018,7 +23018,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R435">
         <v>16</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23165,7 +23165,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R438">
         <v>13</v>
@@ -23215,7 +23215,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23262,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23450,7 +23450,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23544,7 +23544,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R447">
         <v>35</v>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23691,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23788,7 +23788,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R451">
         <v>19</v>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23888,7 +23888,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23982,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24032,7 +24032,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R456">
         <v>11</v>
@@ -24085,7 +24085,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R457">
         <v>20</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24232,7 +24232,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R460">
         <v>5</v>
@@ -24285,7 +24285,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R461">
         <v>4</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24385,7 +24385,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R463">
         <v>6</v>
@@ -24435,7 +24435,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24532,7 +24532,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24582,7 +24582,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24632,7 +24632,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R468">
         <v>27</v>
@@ -24685,7 +24685,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R469">
         <v>15</v>
@@ -24735,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24832,7 +24832,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R472">
         <v>14</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25170,7 +25170,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R479">
         <v>25</v>
@@ -25223,7 +25223,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R480">
         <v>19</v>
@@ -25273,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25323,7 +25323,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R482">
         <v>20</v>
@@ -25376,7 +25376,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25426,7 +25426,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R484">
         <v>27</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25570,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25664,7 +25664,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25711,7 +25711,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25805,7 +25805,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25902,7 +25902,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -25952,7 +25952,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R495">
         <v>23</v>
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26052,7 +26052,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R497">
         <v>16</v>
@@ -26105,7 +26105,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R499">
         <v>12</v>
@@ -26205,7 +26205,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26252,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26302,7 +26302,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R502">
         <v>15</v>
@@ -26352,7 +26352,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26402,7 +26402,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R504">
         <v>13</v>
@@ -26452,7 +26452,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26499,7 +26499,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26546,7 +26546,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R509">
         <v>0</v>
@@ -26696,7 +26696,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R510">
         <v>21</v>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26799,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R512">
         <v>6</v>
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26896,7 +26896,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26993,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R516">
         <v>0</v>
@@ -27046,7 +27046,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R517">
         <v>21</v>
@@ -27099,7 +27099,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27149,7 +27149,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R519">
         <v>5</v>
@@ -27199,7 +27199,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27240,10 +27240,10 @@
         <v>1</v>
       </c>
       <c r="P521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q521">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27284,7 +27284,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
